--- a/Output/April/productivity_TL_valid/productivity_TL_2022-04-26_valid.xlsx
+++ b/Output/April/productivity_TL_valid/productivity_TL_2022-04-26_valid.xlsx
@@ -1305,10 +1305,10 @@
         <v>2</v>
       </c>
       <c r="S13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T13">
-        <v>0.08</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1488,10 +1488,10 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2">
-        <v>0.1230769230769231</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.1230769230769231</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1816,7 +1816,7 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>0.1230769230769231</v>
+        <v>0.125</v>
       </c>
       <c r="E2">
         <v>1</v>

--- a/Output/April/productivity_TL_valid/productivity_TL_2022-04-26_valid.xlsx
+++ b/Output/April/productivity_TL_valid/productivity_TL_2022-04-26_valid.xlsx
@@ -1482,7 +1482,7 @@
         <v>42</v>
       </c>
       <c r="E2">
-        <v>8.916666666666666</v>
+        <v>8.916666666666668</v>
       </c>
       <c r="F2">
         <v>8</v>

--- a/Output/April/productivity_TL_valid/productivity_TL_2022-04-26_valid.xlsx
+++ b/Output/April/productivity_TL_valid/productivity_TL_2022-04-26_valid.xlsx
@@ -1482,7 +1482,7 @@
         <v>42</v>
       </c>
       <c r="E2">
-        <v>8.916666666666668</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="F2">
         <v>8</v>
